--- a/data/dataExport.xlsx
+++ b/data/dataExport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -30,6 +30,9 @@
     <t>Wiek</t>
   </si>
   <si>
+    <t>adasdasd</t>
+  </si>
+  <si>
     <t>Data przyjęcia</t>
   </si>
   <si>
@@ -342,51 +345,51 @@
     <t>1</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Kuchta</t>
+  </si>
+  <si>
+    <t>Zbigniew</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Kuchta</t>
-  </si>
-  <si>
-    <t>Zbigniew</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
+    <t>Świdowski</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Świdowski</t>
-  </si>
-  <si>
-    <t>Adam</t>
+    <t>Skowera</t>
+  </si>
+  <si>
+    <t>Marek</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>Skowera</t>
-  </si>
-  <si>
-    <t>Marek</t>
-  </si>
-  <si>
     <t>Graczyk</t>
   </si>
   <si>
@@ -402,25 +405,25 @@
     <t>5</t>
   </si>
   <si>
+    <t>Krzywda</t>
+  </si>
+  <si>
+    <t>Józef</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>Krzywda</t>
-  </si>
-  <si>
-    <t>Józef</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
+    <t>K</t>
+  </si>
+  <si>
     <t>Skolarczyk</t>
   </si>
   <si>
     <t>Krystyna</t>
-  </si>
-  <si>
-    <t>K</t>
   </si>
   <si>
     <t>7</t>
@@ -561,327 +564,330 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>105</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>106</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>107</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE2" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>72</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>73</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>74</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>75</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>76</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>77</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>78</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>79</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>81</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>83</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>84</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>85</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>86</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>89</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>90</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>91</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>94</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>103</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>105</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>106</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
         <v>111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" t="s">
-        <v>114</v>
       </c>
       <c r="E3" t="n">
         <v>65.0</v>
@@ -893,19 +899,19 @@
         <v>42709.0</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M3" t="n">
         <v>0.0</v>
@@ -915,52 +921,52 @@
       </c>
       <c r="O3"/>
       <c r="P3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" t="s">
+        <v>109</v>
+      </c>
+      <c r="S3" t="s">
         <v>113</v>
       </c>
-      <c r="Q3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R3" t="s">
-        <v>108</v>
-      </c>
-      <c r="S3" t="s">
-        <v>115</v>
-      </c>
       <c r="T3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF3" t="n">
         <v>2.0</v>
@@ -987,40 +993,40 @@
         <v>4.6</v>
       </c>
       <c r="AN3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AP3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AS3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AV3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AZ3" t="n">
         <v>155.0</v>
@@ -1029,22 +1035,22 @@
         <v>0.0</v>
       </c>
       <c r="BB3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BG3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BH3" t="n">
         <v>400.0</v>
@@ -1062,19 +1068,19 @@
         <v>9.0</v>
       </c>
       <c r="BM3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BN3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BO3" t="n">
         <v>0.0</v>
       </c>
       <c r="BP3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BQ3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR3" t="n">
         <v>0.0</v>
@@ -1092,111 +1098,111 @@
         <v>1.0</v>
       </c>
       <c r="BW3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BY3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CR3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CS3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CT3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CV3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CW3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CX3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CY3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CZ3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DA3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DB3" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="DC3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DD3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
@@ -1205,7 +1211,7 @@
         <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E4" t="n">
         <v>65.0</v>
@@ -1217,16 +1223,16 @@
         <v>42716.0</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L4"/>
       <c r="M4" t="n">
@@ -1237,52 +1243,52 @@
       </c>
       <c r="O4"/>
       <c r="P4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" t="s">
+        <v>109</v>
+      </c>
+      <c r="S4" t="s">
         <v>113</v>
       </c>
-      <c r="Q4" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" t="s">
-        <v>108</v>
-      </c>
-      <c r="S4" t="s">
-        <v>115</v>
-      </c>
       <c r="T4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF4" t="n">
         <v>1.0</v>
@@ -1309,40 +1315,40 @@
         <v>4.1</v>
       </c>
       <c r="AN4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AS4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AZ4" t="n">
         <v>195.0</v>
@@ -1351,22 +1357,22 @@
         <v>75.0</v>
       </c>
       <c r="BB4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BG4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BH4" t="n">
         <v>800.0</v>
@@ -1384,19 +1390,19 @@
         <v>9.0</v>
       </c>
       <c r="BM4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BN4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BO4" t="n">
         <v>0.0</v>
       </c>
       <c r="BP4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BQ4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR4" t="n">
         <v>0.0</v>
@@ -1414,107 +1420,107 @@
         <v>1.0</v>
       </c>
       <c r="BW4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BY4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CB4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CR4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CS4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CT4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CV4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CW4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CX4"/>
       <c r="CY4"/>
       <c r="CZ4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DA4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DB4" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="DC4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="DD4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
         <v>122</v>
@@ -1523,7 +1529,7 @@
         <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E5" t="n">
         <v>57.0</v>
@@ -1535,19 +1541,19 @@
         <v>42697.0</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M5" t="n">
         <v>56.0</v>
@@ -1557,52 +1563,52 @@
       </c>
       <c r="O5"/>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF5" t="n">
         <v>1.0</v>
@@ -1629,40 +1635,40 @@
         <v>5.6</v>
       </c>
       <c r="AN5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AP5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AS5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AZ5" t="n">
         <v>155.0</v>
@@ -1671,22 +1677,22 @@
         <v>60.0</v>
       </c>
       <c r="BB5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BC5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BD5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BG5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BH5" t="n">
         <v>2000.0</v>
@@ -1704,19 +1710,19 @@
         <v>9.0</v>
       </c>
       <c r="BM5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BN5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BO5" t="n">
         <v>0.0</v>
       </c>
       <c r="BP5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BQ5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR5" t="n">
         <v>0.0</v>
@@ -1734,120 +1740,120 @@
         <v>1.0</v>
       </c>
       <c r="BW5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BY5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CD5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CH5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CR5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CS5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CT5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CV5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CW5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CX5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CY5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CZ5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DA5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DB5" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="DC5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DD5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E6" t="n">
         <v>67.0</v>
@@ -1859,19 +1865,19 @@
         <v>42705.0</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M6" t="n">
         <v>79.0</v>
@@ -1881,52 +1887,52 @@
       </c>
       <c r="O6"/>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF6" t="n">
         <v>1.0</v>
@@ -1953,40 +1959,40 @@
         <v>2.8</v>
       </c>
       <c r="AN6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AS6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AZ6" t="n">
         <v>95.0</v>
@@ -1995,22 +2001,22 @@
         <v>35.0</v>
       </c>
       <c r="BB6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BG6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BH6" t="n">
         <v>0.0</v>
@@ -2028,19 +2034,19 @@
         <v>8.0</v>
       </c>
       <c r="BM6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BN6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BO6" t="n">
         <v>0.0</v>
       </c>
       <c r="BP6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BQ6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BR6" t="n">
         <v>0.0</v>
@@ -2058,120 +2064,120 @@
         <v>1.0</v>
       </c>
       <c r="BW6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BY6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CC6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CG6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CK6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CR6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CS6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CT6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CV6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CW6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CX6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CY6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CZ6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DA6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DB6" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="DC6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DD6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E7" t="n">
         <v>68.0</v>
@@ -2183,19 +2189,19 @@
         <v>42704.0</v>
       </c>
       <c r="H7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" t="n">
         <v>60.0</v>
@@ -2205,52 +2211,52 @@
       </c>
       <c r="O7"/>
       <c r="P7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>110</v>
+      </c>
+      <c r="R7" t="s">
+        <v>112</v>
+      </c>
+      <c r="S7" t="s">
         <v>113</v>
       </c>
-      <c r="Q7" t="s">
-        <v>113</v>
-      </c>
-      <c r="R7" t="s">
-        <v>110</v>
-      </c>
-      <c r="S7" t="s">
-        <v>115</v>
-      </c>
       <c r="T7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AD7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF7" t="n">
         <v>2.0</v>
@@ -2277,40 +2283,40 @@
         <v>2.6</v>
       </c>
       <c r="AN7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AS7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AT7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AZ7" t="n">
         <v>100.0</v>
@@ -2319,22 +2325,22 @@
         <v>40.0</v>
       </c>
       <c r="BB7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BG7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BH7" t="n">
         <v>1000.0</v>
@@ -2352,19 +2358,19 @@
         <v>15.0</v>
       </c>
       <c r="BM7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BN7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BO7" t="n">
         <v>0.0</v>
       </c>
       <c r="BP7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BQ7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR7" t="n">
         <v>0.0</v>
@@ -2382,107 +2388,107 @@
         <v>1.0</v>
       </c>
       <c r="BW7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BY7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CR7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CS7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CT7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CV7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CW7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CX7"/>
       <c r="CY7"/>
       <c r="CZ7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DA7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DB7" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="DC7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="DD7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
         <v>130</v>
@@ -2491,7 +2497,7 @@
         <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E8" t="n">
         <v>66.0</v>
@@ -2503,19 +2509,19 @@
         <v>42706.0</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>52.0</v>
@@ -2525,52 +2531,52 @@
       </c>
       <c r="O8"/>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF8" t="n">
         <v>2.0</v>
@@ -2597,40 +2603,40 @@
         <v>4.2</v>
       </c>
       <c r="AN8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AP8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AQ8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AS8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AT8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AZ8" t="n">
         <v>180.0</v>
@@ -2639,22 +2645,22 @@
         <v>80.0</v>
       </c>
       <c r="BB8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BG8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BH8" t="n">
         <v>700.0</v>
@@ -2672,19 +2678,19 @@
         <v>11.0</v>
       </c>
       <c r="BM8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BN8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BO8" t="n">
         <v>0.0</v>
       </c>
       <c r="BP8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BQ8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR8" t="n">
         <v>0.0</v>
@@ -2702,116 +2708,116 @@
         <v>1.0</v>
       </c>
       <c r="BW8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BY8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CJ8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CR8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CS8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CT8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CV8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CW8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CX8"/>
       <c r="CY8"/>
       <c r="CZ8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DA8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DB8" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="DC8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="DD8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
         <v>134</v>
-      </c>
-      <c r="D9" t="s">
-        <v>135</v>
       </c>
       <c r="E9" t="n">
         <v>75.0</v>
@@ -2823,19 +2829,19 @@
         <v>42699.0</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>75.0</v>
@@ -2845,52 +2851,52 @@
       </c>
       <c r="O9"/>
       <c r="P9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>110</v>
+      </c>
+      <c r="R9" t="s">
+        <v>109</v>
+      </c>
+      <c r="S9" t="s">
         <v>113</v>
       </c>
-      <c r="Q9" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" t="s">
-        <v>108</v>
-      </c>
-      <c r="S9" t="s">
-        <v>115</v>
-      </c>
       <c r="T9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF9" t="n">
         <v>1.0</v>
@@ -2917,40 +2923,40 @@
         <v>5.0</v>
       </c>
       <c r="AN9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AS9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AZ9" t="n">
         <v>125.0</v>
@@ -2959,22 +2965,22 @@
         <v>60.0</v>
       </c>
       <c r="BB9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BG9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BH9" t="n">
         <v>500.0</v>
@@ -2992,19 +2998,19 @@
         <v>7.0</v>
       </c>
       <c r="BM9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BN9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BO9" t="n">
         <v>0.0</v>
       </c>
       <c r="BP9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BQ9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR9" t="n">
         <v>0.0</v>
@@ -3022,116 +3028,116 @@
         <v>4.0</v>
       </c>
       <c r="BW9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BY9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CJ9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CR9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CS9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CT9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CV9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CW9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CX9"/>
       <c r="CY9"/>
       <c r="CZ9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DA9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DB9" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="DC9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="DD9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E10" t="n">
         <v>69.0</v>
@@ -3143,19 +3149,19 @@
         <v>42710.0</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>76.0</v>
@@ -3165,52 +3171,52 @@
       </c>
       <c r="O10"/>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="n">
         <v>1.0</v>
@@ -3237,40 +3243,40 @@
         <v>2.5</v>
       </c>
       <c r="AN10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AS10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AT10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AV10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AZ10" t="n">
         <v>110.0</v>
@@ -3279,22 +3285,22 @@
         <v>0.0</v>
       </c>
       <c r="BB10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BG10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BH10" t="n">
         <v>700.0</v>
@@ -3312,19 +3318,19 @@
         <v>8.0</v>
       </c>
       <c r="BM10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BN10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BO10" t="n">
         <v>0.0</v>
       </c>
       <c r="BP10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BQ10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR10" t="n">
         <v>0.0</v>
@@ -3342,116 +3348,116 @@
         <v>2.0</v>
       </c>
       <c r="BW10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BY10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CJ10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CR10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CS10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CT10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CV10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CW10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CX10"/>
       <c r="CY10"/>
       <c r="CZ10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DA10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DB10" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="DC10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="DD10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E11" t="n">
         <v>65.0</v>
@@ -3463,16 +3469,16 @@
         <v>42711.0</v>
       </c>
       <c r="H11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11"/>
       <c r="M11" t="n">
@@ -3483,52 +3489,52 @@
       </c>
       <c r="O11"/>
       <c r="P11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R11" t="s">
+        <v>112</v>
+      </c>
+      <c r="S11" t="s">
         <v>113</v>
       </c>
-      <c r="Q11" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" t="s">
-        <v>110</v>
-      </c>
-      <c r="S11" t="s">
-        <v>115</v>
-      </c>
       <c r="T11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="X11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF11" t="n">
         <v>2.0</v>
@@ -3555,40 +3561,40 @@
         <v>2.8</v>
       </c>
       <c r="AN11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AQ11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AS11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AT11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AV11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AZ11" t="n">
         <v>180.0</v>
@@ -3597,22 +3603,22 @@
         <v>95.0</v>
       </c>
       <c r="BB11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BC11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BD11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BG11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BH11" t="n">
         <v>900.0</v>
@@ -3630,19 +3636,19 @@
         <v>21.0</v>
       </c>
       <c r="BM11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BN11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BO11" t="n">
         <v>0.0</v>
       </c>
       <c r="BP11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BQ11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR11" t="n">
         <v>0.0</v>
@@ -3660,116 +3666,116 @@
         <v>1.0</v>
       </c>
       <c r="BW11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BY11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CR11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CS11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CT11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CV11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CW11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CX11"/>
       <c r="CY11"/>
       <c r="CZ11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DA11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DB11" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="DC11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="DD11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E12" t="n">
         <v>71.0</v>
@@ -3781,19 +3787,19 @@
         <v>42712.0</v>
       </c>
       <c r="H12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
         <v>52.0</v>
@@ -3803,52 +3809,52 @@
       </c>
       <c r="O12"/>
       <c r="P12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>110</v>
+      </c>
+      <c r="R12" t="s">
+        <v>114</v>
+      </c>
+      <c r="S12" t="s">
         <v>113</v>
       </c>
-      <c r="Q12" t="s">
-        <v>113</v>
-      </c>
-      <c r="R12" t="s">
-        <v>116</v>
-      </c>
-      <c r="S12" t="s">
-        <v>115</v>
-      </c>
       <c r="T12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AE12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="n">
         <v>1.0</v>
@@ -3875,40 +3881,40 @@
         <v>4.0</v>
       </c>
       <c r="AN12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AQ12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AS12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AV12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AZ12" t="n">
         <v>85.0</v>
@@ -3917,22 +3923,22 @@
         <v>40.0</v>
       </c>
       <c r="BB12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BG12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BH12" t="n">
         <v>400.0</v>
@@ -3950,19 +3956,19 @@
         <v>7.0</v>
       </c>
       <c r="BM12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BN12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BO12" t="n">
         <v>0.0</v>
       </c>
       <c r="BP12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BQ12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR12" t="n">
         <v>0.0</v>
@@ -3980,102 +3986,102 @@
         <v>1.0</v>
       </c>
       <c r="BW12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BY12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CR12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CS12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CT12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CV12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CW12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CX12"/>
       <c r="CY12"/>
       <c r="CZ12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="DA12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="DB12" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="DC12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="DD12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4109,309 +4115,309 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AN2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AO2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AP2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AQ2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AR2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AS2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AT2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AU2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AV2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AW2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AX2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AY2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AZ2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BA2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BB2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BC2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BD2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BE2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BF2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BH2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BI2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BJ2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BK2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BL2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CR2" t="s">
         <v>98</v>
       </c>
-      <c r="BM2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>77</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>79</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>81</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>83</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>84</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>86</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>89</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>90</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>94</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>97</v>
-      </c>
       <c r="CS2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="CT2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="CU2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="CV2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="CW2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CX2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E3" t="n">
         <v>77.0</v>
@@ -4423,16 +4429,16 @@
         <v>42710.0</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L3" t="n">
         <v>43.0</v>
@@ -4442,52 +4448,52 @@
       </c>
       <c r="N3"/>
       <c r="O3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="S3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE3" t="n">
         <v>1.0</v>
@@ -4514,61 +4520,61 @@
         <v>3.6</v>
       </c>
       <c r="AM3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AQ3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AR3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AS3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY3" t="n">
         <v>60.0</v>
       </c>
       <c r="AZ3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BA3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BB3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF3" t="n">
         <v>0.0</v>
@@ -4580,13 +4586,13 @@
         <v>3.0</v>
       </c>
       <c r="BI3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BJ3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BK3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BL3" t="n">
         <v>0.0</v>
@@ -4604,116 +4610,116 @@
         <v>1.0</v>
       </c>
       <c r="BQ3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BS3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BT3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BU3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BV3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BW3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BY3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CD3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ3"/>
       <c r="CR3"/>
       <c r="CS3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CT3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CV3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="CW3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CX3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E4" t="n">
         <v>86.0</v>
@@ -4725,16 +4731,16 @@
         <v>42710.0</v>
       </c>
       <c r="H4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L4" t="n">
         <v>57.0</v>
@@ -4744,52 +4750,52 @@
       </c>
       <c r="N4"/>
       <c r="O4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R4" t="s">
         <v>113</v>
       </c>
-      <c r="P4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>116</v>
-      </c>
-      <c r="R4" t="s">
-        <v>115</v>
-      </c>
       <c r="S4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE4" t="n">
         <v>3.0</v>
@@ -4816,61 +4822,61 @@
         <v>4.9</v>
       </c>
       <c r="AM4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AQ4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AR4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AS4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AU4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AV4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY4" t="n">
         <v>120.0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BA4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BB4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF4" t="n">
         <v>0.0</v>
@@ -4882,13 +4888,13 @@
         <v>3.0</v>
       </c>
       <c r="BI4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BJ4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BK4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BL4" t="n">
         <v>0.0</v>
@@ -4906,116 +4912,116 @@
         <v>1.0</v>
       </c>
       <c r="BQ4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BS4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BT4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BU4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BV4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BW4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BY4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ4"/>
       <c r="CR4"/>
       <c r="CS4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CT4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU4" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CV4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="CW4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CX4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E5" t="n">
         <v>81.0</v>
@@ -5027,16 +5033,16 @@
         <v>42717.0</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L5" t="n">
         <v>75.0</v>
@@ -5046,52 +5052,52 @@
       </c>
       <c r="N5"/>
       <c r="O5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>114</v>
+      </c>
+      <c r="R5" t="s">
+        <v>117</v>
+      </c>
+      <c r="S5" t="s">
+        <v>112</v>
+      </c>
+      <c r="T5" t="s">
+        <v>112</v>
+      </c>
+      <c r="U5" t="s">
+        <v>109</v>
+      </c>
+      <c r="V5" t="s">
+        <v>109</v>
+      </c>
+      <c r="W5" t="s">
+        <v>112</v>
+      </c>
+      <c r="X5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD5" t="s">
         <v>113</v>
-      </c>
-      <c r="P5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>116</v>
-      </c>
-      <c r="R5" t="s">
-        <v>109</v>
-      </c>
-      <c r="S5" t="s">
-        <v>110</v>
-      </c>
-      <c r="T5" t="s">
-        <v>110</v>
-      </c>
-      <c r="U5" t="s">
-        <v>108</v>
-      </c>
-      <c r="V5" t="s">
-        <v>108</v>
-      </c>
-      <c r="W5" t="s">
-        <v>110</v>
-      </c>
-      <c r="X5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>115</v>
       </c>
       <c r="AE5" t="n">
         <v>2.0</v>
@@ -5118,61 +5124,61 @@
         <v>8.0</v>
       </c>
       <c r="AM5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AO5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AP5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AS5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY5" t="n">
         <v>85.0</v>
       </c>
       <c r="AZ5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BA5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BB5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BF5" t="n">
         <v>0.0</v>
@@ -5184,13 +5190,13 @@
         <v>4.0</v>
       </c>
       <c r="BI5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BJ5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BK5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BL5" t="n">
         <v>0.0</v>
@@ -5208,116 +5214,116 @@
         <v>1.0</v>
       </c>
       <c r="BQ5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BS5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BT5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BU5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BV5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BW5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BY5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ5"/>
       <c r="CR5"/>
       <c r="CS5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CT5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU5" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CV5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="CW5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CX5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E6" t="n">
         <v>79.0</v>
@@ -5329,16 +5335,16 @@
         <v>42717.0</v>
       </c>
       <c r="H6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="n">
         <v>37.0</v>
@@ -5348,52 +5354,52 @@
       </c>
       <c r="N6"/>
       <c r="O6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>114</v>
+      </c>
+      <c r="R6" t="s">
         <v>113</v>
       </c>
-      <c r="P6" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>116</v>
-      </c>
-      <c r="R6" t="s">
-        <v>115</v>
-      </c>
       <c r="S6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AC6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE6" t="n">
         <v>3.0</v>
@@ -5420,61 +5426,61 @@
         <v>0.0</v>
       </c>
       <c r="AM6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AQ6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AS6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AU6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY6" t="n">
         <v>110.0</v>
       </c>
       <c r="AZ6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BA6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BB6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BF6" t="n">
         <v>0.0</v>
@@ -5486,13 +5492,13 @@
         <v>3.0</v>
       </c>
       <c r="BI6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BJ6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BK6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BL6" t="n">
         <v>0.0</v>
@@ -5510,116 +5516,116 @@
         <v>1.0</v>
       </c>
       <c r="BQ6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BS6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BT6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BU6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BV6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BW6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BY6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ6"/>
       <c r="CR6"/>
       <c r="CS6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CT6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU6" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CV6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="CW6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CX6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E7" t="n">
         <v>73.0</v>
@@ -5631,16 +5637,16 @@
         <v>42724.0</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L7" t="n">
         <v>56.0</v>
@@ -5650,52 +5656,52 @@
       </c>
       <c r="N7"/>
       <c r="O7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="S7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE7" t="n">
         <v>3.0</v>
@@ -5722,61 +5728,61 @@
         <v>3.3</v>
       </c>
       <c r="AM7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AN7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AQ7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AR7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AS7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AV7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY7" t="n">
         <v>95.0</v>
       </c>
       <c r="AZ7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BA7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BB7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BF7" t="n">
         <v>0.0</v>
@@ -5788,13 +5794,13 @@
         <v>4.0</v>
       </c>
       <c r="BI7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BJ7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BK7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BL7" t="n">
         <v>0.0</v>
@@ -5812,116 +5818,116 @@
         <v>1.0</v>
       </c>
       <c r="BQ7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BS7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BT7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BU7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BV7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BW7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BY7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ7"/>
       <c r="CR7"/>
       <c r="CS7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CT7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU7" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CV7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="CW7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CX7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E8" t="n">
         <v>61.0</v>
@@ -5933,16 +5939,16 @@
         <v>42724.0</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L8" t="n">
         <v>73.0</v>
@@ -5952,52 +5958,52 @@
       </c>
       <c r="N8"/>
       <c r="O8" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>109</v>
+      </c>
+      <c r="R8" t="s">
         <v>113</v>
       </c>
-      <c r="P8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>108</v>
-      </c>
-      <c r="R8" t="s">
-        <v>115</v>
-      </c>
       <c r="S8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="V8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE8" t="n">
         <v>2.0</v>
@@ -6024,61 +6030,61 @@
         <v>5.0</v>
       </c>
       <c r="AM8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AR8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AS8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY8" t="n">
         <v>155.0</v>
       </c>
       <c r="AZ8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BA8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BB8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF8" t="n">
         <v>0.0</v>
@@ -6090,13 +6096,13 @@
         <v>5.0</v>
       </c>
       <c r="BI8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BJ8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BK8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BL8" t="n">
         <v>0.0</v>
@@ -6114,116 +6120,116 @@
         <v>1.0</v>
       </c>
       <c r="BQ8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BS8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BT8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BU8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BV8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BW8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BY8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ8"/>
       <c r="CR8"/>
       <c r="CS8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CT8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU8" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CV8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="CW8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CX8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E9" t="n">
         <v>68.0</v>
@@ -6235,16 +6241,16 @@
         <v>42682.0</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L9" t="n">
         <v>28.0</v>
@@ -6254,52 +6260,52 @@
       </c>
       <c r="N9"/>
       <c r="O9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>114</v>
+      </c>
+      <c r="R9" t="s">
         <v>113</v>
       </c>
-      <c r="P9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>116</v>
-      </c>
-      <c r="R9" t="s">
-        <v>115</v>
-      </c>
       <c r="S9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AC9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE9" t="n">
         <v>3.0</v>
@@ -6326,61 +6332,61 @@
         <v>4.0</v>
       </c>
       <c r="AM9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AP9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AR9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AS9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AU9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AW9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY9" t="n">
         <v>115.0</v>
       </c>
       <c r="AZ9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BA9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BB9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF9" t="n">
         <v>0.0</v>
@@ -6392,13 +6398,13 @@
         <v>5.0</v>
       </c>
       <c r="BI9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BJ9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BK9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BL9" t="n">
         <v>0.0</v>
@@ -6416,116 +6422,116 @@
         <v>1.0</v>
       </c>
       <c r="BQ9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BS9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BT9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BU9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BV9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BW9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BY9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ9"/>
       <c r="CR9"/>
       <c r="CS9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CT9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CU9" s="1" t="n">
         <v>42733.0</v>
       </c>
       <c r="CV9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="CW9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CX9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E10" t="n">
         <v>69.0</v>
@@ -6537,16 +6543,16 @@
         <v>42689.0</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L10" t="n">
         <v>74.0</v>
@@ -6556,52 +6562,52 @@
       </c>
       <c r="N10"/>
       <c r="O10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="S10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE10" t="n">
         <v>2.0</v>
@@ -6628,61 +6634,61 @@
         <v>5.1</v>
       </c>
       <c r="AM10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AP10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AR10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AS10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY10" t="n">
         <v>90.0</v>
       </c>
       <c r="AZ10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BA10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BB10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF10" t="n">
         <v>0.0</v>
@@ -6694,13 +6700,13 @@
         <v>4.0</v>
       </c>
       <c r="BI10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BJ10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BK10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BL10" t="n">
         <v>0.0</v>
@@ -6718,116 +6724,116 @@
         <v>1.0</v>
       </c>
       <c r="BQ10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BR10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BS10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BT10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BU10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BV10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BW10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BY10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ10"/>
       <c r="CR10"/>
       <c r="CS10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CT10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU10" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CV10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="CW10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CX10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E11" t="n">
         <v>72.0</v>
@@ -6839,16 +6845,16 @@
         <v>42689.0</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L11" t="n">
         <v>56.0</v>
@@ -6858,52 +6864,52 @@
       </c>
       <c r="N11"/>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="S11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AC11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE11" t="n">
         <v>1.0</v>
@@ -6930,61 +6936,61 @@
         <v>6.9</v>
       </c>
       <c r="AM11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AP11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AR11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AS11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AU11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY11" t="n">
         <v>105.0</v>
       </c>
       <c r="AZ11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BA11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BB11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF11" t="n">
         <v>0.0</v>
@@ -6996,13 +7002,13 @@
         <v>3.0</v>
       </c>
       <c r="BI11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BJ11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BK11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BL11" t="n">
         <v>0.0</v>
@@ -7020,116 +7026,116 @@
         <v>1.0</v>
       </c>
       <c r="BQ11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BS11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BT11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BU11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BV11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BW11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BY11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ11"/>
       <c r="CR11"/>
       <c r="CS11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CT11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU11" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CV11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="CW11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CX11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E12" t="n">
         <v>87.0</v>
@@ -7141,16 +7147,16 @@
         <v>42696.0</v>
       </c>
       <c r="H12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L12" t="n">
         <v>62.0</v>
@@ -7160,52 +7166,52 @@
       </c>
       <c r="N12"/>
       <c r="O12" t="s">
+        <v>110</v>
+      </c>
+      <c r="P12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>112</v>
+      </c>
+      <c r="R12" t="s">
         <v>113</v>
       </c>
-      <c r="P12" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>110</v>
-      </c>
-      <c r="R12" t="s">
-        <v>115</v>
-      </c>
       <c r="S12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="V12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE12" t="n">
         <v>2.0</v>
@@ -7232,61 +7238,61 @@
         <v>4.1</v>
       </c>
       <c r="AM12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AO12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AP12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AQ12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AR12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AS12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AT12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AU12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AW12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AY12" t="n">
         <v>135.0</v>
       </c>
       <c r="AZ12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BA12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BB12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BC12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BD12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BE12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BF12" t="n">
         <v>0.0</v>
@@ -7298,13 +7304,13 @@
         <v>5.0</v>
       </c>
       <c r="BI12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BJ12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BK12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BL12" t="n">
         <v>0.0</v>
@@ -7322,102 +7328,102 @@
         <v>1.0</v>
       </c>
       <c r="BQ12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BR12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BS12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BT12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BU12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BV12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BW12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BX12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BY12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BZ12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CA12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CB12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CC12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CD12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CE12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CF12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CG12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CH12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CI12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CJ12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CK12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CL12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CM12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CN12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CO12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CP12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CQ12"/>
       <c r="CR12"/>
       <c r="CS12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="CT12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CU12" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CV12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="CW12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="CX12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/dataExport.xlsx
+++ b/data/dataExport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="159">
   <si>
     <t>ID</t>
   </si>
@@ -30,13 +30,16 @@
     <t>Wiek</t>
   </si>
   <si>
+    <t>Data zabiegu</t>
+  </si>
+  <si>
+    <t>Data przyjęcia</t>
+  </si>
+  <si>
     <t>Rodzaj zabiegu</t>
   </si>
   <si>
-    <t>Data przyjęcia</t>
-  </si>
-  <si>
-    <t>Data zabiegu</t>
+    <t>Utrata przytomności</t>
   </si>
   <si>
     <t>Znieczulenie</t>
@@ -51,30 +54,27 @@
     <t>AA-objawy</t>
   </si>
   <si>
+    <t>Wymiary AA [mm]</t>
+  </si>
+  <si>
+    <t>PAD</t>
+  </si>
+  <si>
+    <t>Palenie tytoniu</t>
+  </si>
+  <si>
+    <t>Maksymalne wymiary tętniaka tt. biodrowych [mm]</t>
+  </si>
+  <si>
+    <t>Badanie obrazowe</t>
+  </si>
+  <si>
     <t>Skala ASA</t>
   </si>
   <si>
-    <t>Wymiary AA [mm]</t>
-  </si>
-  <si>
     <t>Wstrząs przy przyjęciu</t>
   </si>
   <si>
-    <t>PAD</t>
-  </si>
-  <si>
-    <t>Maksymalne wymiary tętniaka tt. biodrowych [mm]</t>
-  </si>
-  <si>
-    <t>Badanie obrazowe</t>
-  </si>
-  <si>
-    <t>Utrata przytomności</t>
-  </si>
-  <si>
-    <t>Palenie tytoniu</t>
-  </si>
-  <si>
     <t>Lokalizacja tętniaka</t>
   </si>
   <si>
@@ -132,42 +132,42 @@
     <t>Fibrynogen [g/l]</t>
   </si>
   <si>
+    <t>Diuretyk</t>
+  </si>
+  <si>
+    <t>Aspiryna</t>
+  </si>
+  <si>
+    <t>Statyna</t>
+  </si>
+  <si>
+    <t>ACE-I</t>
+  </si>
+  <si>
+    <t>ARB</t>
+  </si>
+  <si>
     <t>?-bloker</t>
   </si>
   <si>
-    <t>Aspiryna</t>
-  </si>
-  <si>
-    <t>Statyna</t>
-  </si>
-  <si>
-    <t>ACE-I</t>
-  </si>
-  <si>
-    <t>ARB</t>
-  </si>
-  <si>
     <t>Ca-bloker</t>
   </si>
   <si>
     <t>Werapamil, dilitiazem</t>
   </si>
   <si>
-    <t>Diuretyk</t>
-  </si>
-  <si>
     <t>Doustne antykoagulanty</t>
   </si>
   <si>
+    <t>HDCz</t>
+  </si>
+  <si>
+    <t>Klopidogrel</t>
+  </si>
+  <si>
     <t>Fibrat</t>
   </si>
   <si>
-    <t>HDCz</t>
-  </si>
-  <si>
-    <t>Klopidogrel</t>
-  </si>
-  <si>
     <t>Adrenalina</t>
   </si>
   <si>
@@ -180,132 +180,132 @@
     <t>Wazopresor</t>
   </si>
   <si>
+    <t>Noradrenalina</t>
+  </si>
+  <si>
+    <t>Dopamina</t>
+  </si>
+  <si>
+    <t>Dobutamina</t>
+  </si>
+  <si>
+    <t>Efedryna</t>
+  </si>
+  <si>
+    <t>Objętość utraconej krwi [ml]</t>
+  </si>
+  <si>
+    <t>Wlew amin presyjnych po zabiegu</t>
+  </si>
+  <si>
+    <t>Liczba dni na respiratorze po zabiegu</t>
+  </si>
+  <si>
+    <t>Objętość wydalonego moczu [ml]</t>
+  </si>
+  <si>
+    <t>Czas pobytu w ICU [dni]</t>
+  </si>
+  <si>
+    <t>Przedłużona mechaniczna wentylacja &gt; 8h</t>
+  </si>
+  <si>
     <t>Czas pobytu w szpitalu [dni]</t>
   </si>
   <si>
-    <t>Noradrenalina</t>
-  </si>
-  <si>
-    <t>Wlew amin presyjnych po zabiegu</t>
-  </si>
-  <si>
-    <t>Liczba dni na respiratorze po zabiegu</t>
-  </si>
-  <si>
-    <t>Dopamina</t>
-  </si>
-  <si>
-    <t>Dobutamina</t>
-  </si>
-  <si>
-    <t>Efedryna</t>
-  </si>
-  <si>
-    <t>Objętość utraconej krwi [ml]</t>
-  </si>
-  <si>
-    <t>Objętość wydalonego moczu [ml]</t>
-  </si>
-  <si>
-    <t>Czas pobytu w ICU [dni]</t>
-  </si>
-  <si>
-    <t>Przedłużona mechaniczna wentylacja &gt; 8h</t>
-  </si>
-  <si>
     <t>Objetość przetoczonego KKCz [ml]</t>
   </si>
   <si>
+    <t>Nowy epizod AF</t>
+  </si>
+  <si>
+    <t>MINS</t>
+  </si>
+  <si>
+    <t>Leczenie nerkozastępcze po zabiegu</t>
+  </si>
+  <si>
+    <t>Zgon wewnątrzszpitalny</t>
+  </si>
+  <si>
+    <t>Niedokrwienie kończyn dolnych</t>
+  </si>
+  <si>
+    <t>Ostre zapalenie trzustki</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Niedokrwienie jelit</t>
+  </si>
+  <si>
+    <t>Reoperacja w trakcie pobytu</t>
+  </si>
+  <si>
+    <t>Zgon z przyczyn naczyniowych</t>
+  </si>
+  <si>
+    <t>Uszkodzenie wątroby</t>
+  </si>
+  <si>
+    <t>Krwawienie z rany pooperacyjnej</t>
+  </si>
+  <si>
+    <t>DVT-zakrzepica żył głębokich</t>
+  </si>
+  <si>
+    <t>Zmiany w EKG</t>
+  </si>
+  <si>
+    <t>Nowe zaburzenia kurczliwości w ECHO</t>
+  </si>
+  <si>
+    <t>Dolegliwości stenokardialne</t>
+  </si>
+  <si>
     <t>Obrzęk płuc</t>
   </si>
   <si>
-    <t>MINS</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>Zmiany w EKG</t>
-  </si>
-  <si>
-    <t>Nowe zaburzenia kurczliwości w ECHO</t>
+    <t>Krwawienie z przewodu pokarmowego</t>
+  </si>
+  <si>
+    <t>Zatorowość płucna</t>
+  </si>
+  <si>
+    <t>Zakrzepica żył powierzchownych</t>
+  </si>
+  <si>
+    <t>Zatrzymanie krążenia niezakończone zgonem</t>
+  </si>
+  <si>
+    <t>Udar mózgu</t>
+  </si>
+  <si>
+    <t>Zakażenie miejsca operowanego</t>
+  </si>
+  <si>
+    <t>Zapalenie płuc</t>
+  </si>
+  <si>
+    <t>Zakażenie C. difficile</t>
+  </si>
+  <si>
+    <t>Zgon doba po operacji</t>
+  </si>
+  <si>
+    <t>Sepsa</t>
+  </si>
+  <si>
+    <t>Pooperacyjna niewydolność nerek (AKI)</t>
+  </si>
+  <si>
+    <t>Przetoczenie KKCz na OIT/naczyniówce</t>
   </si>
   <si>
     <t>Niedrożność protezy</t>
   </si>
   <si>
-    <t>Dolegliwości stenokardialne</t>
-  </si>
-  <si>
-    <t>Zatrzymanie krążenia niezakończone zgonem</t>
-  </si>
-  <si>
-    <t>Zgon wewnątrzszpitalny</t>
-  </si>
-  <si>
-    <t>Leczenie nerkozastępcze po zabiegu</t>
-  </si>
-  <si>
-    <t>Reoperacja w trakcie pobytu</t>
-  </si>
-  <si>
-    <t>Zakażenie miejsca operowanego</t>
-  </si>
-  <si>
-    <t>Nowy epizod AF</t>
-  </si>
-  <si>
-    <t>Niedokrwienie kończyn dolnych</t>
-  </si>
-  <si>
-    <t>Ostre zapalenie trzustki</t>
-  </si>
-  <si>
-    <t>Krwawienie z przewodu pokarmowego</t>
-  </si>
-  <si>
-    <t>Udar mózgu</t>
-  </si>
-  <si>
-    <t>Zapalenie płuc</t>
-  </si>
-  <si>
-    <t>Uszkodzenie wątroby</t>
-  </si>
-  <si>
-    <t>Zakażenie C. difficile</t>
-  </si>
-  <si>
-    <t>Zakrzepica żył powierzchownych</t>
-  </si>
-  <si>
-    <t>Przetoczenie KKCz na OIT/naczyniówce</t>
-  </si>
-  <si>
-    <t>Zatorowość płucna</t>
-  </si>
-  <si>
-    <t>Zgon z przyczyn naczyniowych</t>
-  </si>
-  <si>
-    <t>Sepsa</t>
-  </si>
-  <si>
-    <t>Zgon doba po operacji</t>
-  </si>
-  <si>
-    <t>Krwawienie z rany pooperacyjnej</t>
-  </si>
-  <si>
-    <t>DVT-zakrzepica żył głębokich</t>
-  </si>
-  <si>
-    <t>Niedokrwienie jelit</t>
-  </si>
-  <si>
-    <t>Pooperacyjna niewydolność nerek (AKI)</t>
-  </si>
-  <si>
     <t>Niewydolnosć wielonarządowa</t>
   </si>
   <si>
@@ -490,12 +490,6 @@
   </si>
   <si>
     <t>385</t>
-  </si>
-  <si>
-    <t>66666</t>
-  </si>
-  <si>
-    <t>111</t>
   </si>
 </sst>
 </file>
@@ -570,22 +564,22 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>
@@ -600,19 +594,19 @@
         <v>20</v>
       </c>
       <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
         <v>19</v>
-      </c>
-      <c r="S2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" t="s">
-        <v>14</v>
       </c>
       <c r="V2" t="s">
         <v>21</v>
@@ -681,28 +675,28 @@
         <v>43</v>
       </c>
       <c r="AR2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU2" t="s">
         <v>39</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>46</v>
       </c>
       <c r="AV2" t="s">
         <v>47</v>
       </c>
       <c r="AW2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX2" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>50</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>48</v>
       </c>
       <c r="AZ2" t="s">
         <v>52</v>
@@ -714,49 +708,49 @@
         <v>54</v>
       </c>
       <c r="BC2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BD2" t="s">
         <v>51</v>
       </c>
       <c r="BE2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH2" t="s">
         <v>59</v>
       </c>
-      <c r="BF2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>62</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>63</v>
       </c>
       <c r="BJ2" t="s">
         <v>66</v>
       </c>
       <c r="BK2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN2" t="s">
         <v>64</v>
       </c>
-      <c r="BL2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>65</v>
-      </c>
       <c r="BO2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="BP2" t="s">
         <v>68</v>
       </c>
       <c r="BQ2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="BR2" t="s">
         <v>98</v>
@@ -774,91 +768,91 @@
         <v>102</v>
       </c>
       <c r="BW2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BX2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>67</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>69</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO2" t="s">
         <v>71</v>
       </c>
-      <c r="BY2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>67</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>79</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>83</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>84</v>
-      </c>
-      <c r="CD2" t="s">
+      <c r="CP2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CS2" t="s">
         <v>91</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>76</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>89</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>94</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>78</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>85</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>81</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>72</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>86</v>
       </c>
       <c r="CT2" t="s">
         <v>97</v>
       </c>
       <c r="CU2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CV2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="CW2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="CX2" t="s">
         <v>92</v>
       </c>
       <c r="CY2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="CZ2" t="s">
         <v>103</v>
@@ -4143,7 +4137,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CY13"/>
+  <dimension ref="A1:CY12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4170,19 +4164,19 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -4197,19 +4191,19 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" t="s">
         <v>19</v>
-      </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>14</v>
       </c>
       <c r="U2" t="s">
         <v>21</v>
@@ -4278,28 +4272,28 @@
         <v>43</v>
       </c>
       <c r="AQ2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT2" t="s">
         <v>39</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>46</v>
       </c>
       <c r="AU2" t="s">
         <v>47</v>
       </c>
       <c r="AV2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW2" t="s">
         <v>49</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>50</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>48</v>
       </c>
       <c r="AY2" t="s">
         <v>52</v>
@@ -4308,37 +4302,37 @@
         <v>54</v>
       </c>
       <c r="BA2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BB2" t="s">
         <v>51</v>
       </c>
       <c r="BC2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="BD2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="BE2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="BF2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BG2" t="s">
         <v>66</v>
       </c>
       <c r="BH2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BI2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="BJ2" t="s">
         <v>68</v>
       </c>
       <c r="BK2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="BL2" t="s">
         <v>98</v>
@@ -4356,88 +4350,88 @@
         <v>102</v>
       </c>
       <c r="BQ2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BR2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI2" t="s">
         <v>71</v>
       </c>
-      <c r="BS2" t="s">
-        <v>73</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="CJ2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CL2" t="s">
         <v>96</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>89</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>94</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>78</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>85</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>81</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>72</v>
       </c>
       <c r="CM2" t="s">
         <v>97</v>
       </c>
       <c r="CN2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="CO2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="CP2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="CQ2" t="s">
         <v>92</v>
       </c>
       <c r="CR2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="CS2" t="s">
         <v>103</v>
@@ -7536,314 +7530,6 @@
       </c>
       <c r="CX12" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" t="s">
-        <v>110</v>
-      </c>
-      <c r="M13" t="s">
-        <v>110</v>
-      </c>
-      <c r="N13" t="s">
-        <v>110</v>
-      </c>
-      <c r="O13" t="s">
-        <v>110</v>
-      </c>
-      <c r="P13" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>110</v>
-      </c>
-      <c r="R13" t="s">
-        <v>110</v>
-      </c>
-      <c r="S13" t="s">
-        <v>110</v>
-      </c>
-      <c r="T13" t="s">
-        <v>110</v>
-      </c>
-      <c r="U13" t="s">
-        <v>110</v>
-      </c>
-      <c r="V13" t="s">
-        <v>110</v>
-      </c>
-      <c r="W13" t="s">
-        <v>110</v>
-      </c>
-      <c r="X13" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CC13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CD13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CE13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CH13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CI13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CJ13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CK13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CL13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CO13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CP13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CQ13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CR13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CS13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CT13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CU13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="CV13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CW13" t="s">
-        <v>110</v>
-      </c>
-      <c r="CX13" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/dataExport.xlsx
+++ b/data/dataExport.xlsx
@@ -18,37 +18,49 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Wiek</t>
+    <t>Data przyjęcia</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>382</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>385</t>
   </si>
   <si>
     <t>376</t>
@@ -67,25 +79,15 @@
   </si>
   <si>
     <t>381</t>
-  </si>
-  <si>
-    <t>382</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>385</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -115,8 +117,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -142,80 +164,80 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>65.0</v>
+      <c r="B3" s="1" t="n">
+        <v>42696.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>65.0</v>
+      <c r="B4" s="2" t="n">
+        <v>42697.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>57.0</v>
+      <c r="B5" s="3" t="n">
+        <v>42699.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>67.0</v>
+      <c r="B6" s="4" t="n">
+        <v>42704.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>68.0</v>
+      <c r="B7" s="5" t="n">
+        <v>42705.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>66.0</v>
+      <c r="B8" s="6" t="n">
+        <v>42708.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>75.0</v>
+      <c r="B9" s="7" t="n">
+        <v>42709.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>69.0</v>
+      <c r="B10" s="8" t="n">
+        <v>42710.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>65.0</v>
+      <c r="B11" s="9" t="n">
+        <v>42711.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
-        <v>71.0</v>
+      <c r="B12" s="10" t="n">
+        <v>42715.0</v>
       </c>
     </row>
   </sheetData>
@@ -244,80 +266,80 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="n">
-        <v>77.0</v>
+      <c r="B3" s="11" t="n">
+        <v>42680.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="n">
-        <v>86.0</v>
+      <c r="B4" s="12" t="n">
+        <v>42687.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="n">
-        <v>81.0</v>
+      <c r="B5" s="13" t="n">
+        <v>42688.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="n">
-        <v>79.0</v>
+      <c r="B6" s="14" t="n">
+        <v>42694.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="n">
-        <v>73.0</v>
+      <c r="B7" s="15" t="n">
+        <v>42709.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="n">
-        <v>61.0</v>
+      <c r="B8" s="16" t="n">
+        <v>42709.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>68.0</v>
+      <c r="B9" s="17" t="n">
+        <v>42716.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="n">
-        <v>69.0</v>
+      <c r="B10" s="18" t="n">
+        <v>42717.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="n">
-        <v>72.0</v>
+      <c r="B11" s="19" t="n">
+        <v>42723.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="n">
-        <v>87.0</v>
+      <c r="B12" s="20" t="n">
+        <v>42723.0</v>
       </c>
     </row>
   </sheetData>
